--- a/Data/Temp/Yearly-Report-2021-DE987564.xlsx
+++ b/Data/Temp/Yearly-Report-2021-DE987564.xlsx
@@ -14,153 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <x:si>
-    <x:t>198807</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <x:si>
+    <x:t>514586</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46038.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27146.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27231.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55023.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145487</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27639.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29502.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>550163</x:t>
   </x:si>
   <x:si>
     <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20577.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>794197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55252.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>331516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1758.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10550.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514586</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46038.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406575</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55023.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>330140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27231.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145487</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27639.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29502.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>550163</x:t>
   </x:si>
   <x:si>
     <x:t>203223</x:t>
@@ -554,209 +527,209 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
